--- a/oko/config oko.xlsx
+++ b/oko/config oko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln.sharepoint.com/sites/GGD-ONDZ/PSchijf/Gezondheidsmonitor/Algemeen/Automatisering en R/0. Github/report_excel_to_powerpoint/oko/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="911" documentId="13_ncr:1_{BEF9BC84-22C2-4587-9B7D-81FBCE0907AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{726665A3-2628-4120-8069-A867EE265447}"/>
+  <xr:revisionPtr revIDLastSave="927" documentId="13_ncr:1_{BEF9BC84-22C2-4587-9B7D-81FBCE0907AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34725226-337D-4D31-ACA8-B9CE230CEAAC}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5265" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
   </bookViews>
   <sheets>
     <sheet name="reports" sheetId="4" r:id="rId1"/>
@@ -380,7 +380,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="275">
   <si>
     <t>type</t>
   </si>
@@ -943,21 +943,9 @@
     <t>LBAGK3S20; LBAGK3S15; LBAGK3S17</t>
   </si>
   <si>
-    <t>LOAGK3S30; LOAGK3S16</t>
-  </si>
-  <si>
-    <t>De houding van ouders ten opzichte van hangt samen met het alcoholgebruik van jongeren. Van de jongeren die geen (of alleen een slokje) alcohol drinken geeft LOAGK3S30 aan dat hun ouders het goed zouden vinden als ze toch alcohol zouden drinken. Van de jongeren die alcohol drinken geeft LOAGK3S16 aan dat hun ouders alcohol drinken goed vinden.</t>
-  </si>
-  <si>
-    <t>LOAGK3S1; LOAGK3S2; LOAGK3S3; LOAGK3S4; LOAGK3S5; LOAGK3S6; LOAGK3S7; LOAGK3S8; LOAGK3S9; LOAGK3S10</t>
-  </si>
-  <si>
     <t>1;1;1;1;1;1;1;1;1;1</t>
   </si>
   <si>
-    <t>LOAGA311; LOAGA312; LOAGA313; LOAGA314; LOAGA315</t>
-  </si>
-  <si>
     <t>1 = Koopt zelf; 1 = Anderen kopen voor mij; 1 = Krijgt van vrienden; 1 = Krijgt van ouders; 1 = krijgt van andere volwassene</t>
   </si>
   <si>
@@ -1108,24 +1096,12 @@
     <t>Houding van ouders ten opzichte van mogelijk alcoholgebruik van hun kind</t>
   </si>
   <si>
-    <t>#36B03F; #FABD15; #FF6200; #E3032C; #6EA6FF; #4450C6</t>
-  </si>
-  <si>
     <t>Grafiek mening ouders alcohol</t>
   </si>
   <si>
     <t>Grafiek mening ouders geen alcohol</t>
   </si>
   <si>
-    <t>LOAGKA316</t>
-  </si>
-  <si>
-    <t>LOAGKA317</t>
-  </si>
-  <si>
-    <t>#36B03F; #FF6200; #E3032C; #6EA6FF; #4450C6</t>
-  </si>
-  <si>
     <t>x_ticklabel_position</t>
   </si>
   <si>
@@ -1202,6 +1178,33 @@
   </si>
   <si>
     <t>#E3032C; #FABD15; #36B03F</t>
+  </si>
+  <si>
+    <t>De houding van ouders ten opzichte van hangt samen met het alcoholgebruik van jongeren. Van de jongeren die geen (of alleen een slokje) alcohol drinken geeft LOAGK3A25 aan dat hun ouders het goed zouden vinden als ze toch alcohol zouden drinken. Van de jongeren die alcohol drinken geeft LOAGK3A16 aan dat hun ouders alcohol drinken goed vinden.</t>
+  </si>
+  <si>
+    <t>LOAGKA318</t>
+  </si>
+  <si>
+    <t>LOAGKA319</t>
+  </si>
+  <si>
+    <t>LOAGK3A1; LOAGK3A2; LOAGK3A3; LOAGK3A4; LOAGK3A5; LOAGK3A6; LOAGK3A7; LOAGK3A8; LOAGK3A9; LOAGK3A10</t>
+  </si>
+  <si>
+    <t>LBRAK3S23</t>
+  </si>
+  <si>
+    <t>LOAGK3S25; LOAGK3S16</t>
+  </si>
+  <si>
+    <t>LOAGK3A11; LOAGK3A12; LOAGK3A13; LOAGK3A14; LOAGK3A15</t>
+  </si>
+  <si>
+    <t>#36B03F; #92D050; #FABD15; #FF6200; #E3032C; #4450C6</t>
+  </si>
+  <si>
+    <t>#36B03F; #92D050; #FF6200; #E3032C; #4450C6</t>
   </si>
 </sst>
 </file>
@@ -1852,22 +1855,22 @@
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="4"/>
+    <col min="3" max="3" width="27.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="25.109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -1899,9 +1902,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>165</v>
@@ -1913,7 +1916,7 @@
         <v>31</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>167</v>
@@ -1922,13 +1925,13 @@
         <v>999</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1941,37 +1944,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B8C6B-747D-4246-8EF4-E1910EE284AD}">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="71.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="17" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="47.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.85546875" style="2"/>
+    <col min="15" max="15" width="31.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="47.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -2027,13 +2030,13 @@
         <v>29</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="T1" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2055,7 +2058,7 @@
       </c>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -2077,7 +2080,7 @@
       </c>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
@@ -2085,7 +2088,7 @@
         <v>104</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>167</v>
@@ -2103,7 +2106,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>45</v>
       </c>
@@ -2132,7 +2135,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>45</v>
       </c>
@@ -2167,9 +2170,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>34</v>
@@ -2196,9 +2199,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>37</v>
@@ -2231,7 +2234,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>174</v>
       </c>
@@ -2260,7 +2263,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>174</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>115</v>
       </c>
@@ -2330,7 +2333,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>50</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>62</v>
       </c>
@@ -2403,7 +2406,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>51</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>156</v>
       </c>
@@ -2467,7 +2470,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>183</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>185</v>
       </c>
@@ -2525,7 +2528,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>117</v>
       </c>
@@ -2560,7 +2563,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>117</v>
       </c>
@@ -2595,15 +2598,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:20" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="69" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>188</v>
+        <v>266</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>99</v>
@@ -2624,7 +2627,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>158</v>
       </c>
@@ -2632,7 +2635,7 @@
         <v>139</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="D21" s="18"/>
       <c r="J21" s="2" t="s">
@@ -2648,7 +2651,7 @@
         <v>7</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>114</v>
@@ -2657,18 +2660,18 @@
         <v>100</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="D22" s="18"/>
       <c r="J22" s="2" t="s">
@@ -2684,7 +2687,7 @@
         <v>7</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>114</v>
@@ -2693,10 +2696,10 @@
         <v>100</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" ht="51" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>60</v>
       </c>
@@ -2704,13 +2707,13 @@
         <v>37</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>167</v>
@@ -2734,7 +2737,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:20" ht="51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>61</v>
       </c>
@@ -2742,13 +2745,13 @@
         <v>37</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>191</v>
+        <v>272</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>178</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>167</v>
@@ -2772,15 +2775,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="25" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D25" s="18" t="s">
         <v>35</v>
@@ -2801,15 +2804,15 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>99</v>
@@ -2830,14 +2833,16 @@
         <v>64</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>68</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C27" s="19"/>
+      <c r="C27" s="3" t="s">
+        <v>270</v>
+      </c>
       <c r="D27" s="18" t="s">
         <v>120</v>
       </c>
@@ -2863,7 +2868,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>69</v>
       </c>
@@ -2871,7 +2876,7 @@
         <v>37</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>99</v>
@@ -2898,7 +2903,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>70</v>
       </c>
@@ -2906,7 +2911,7 @@
         <v>37</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>99</v>
@@ -2933,15 +2938,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="5" t="s">
@@ -2965,16 +2970,19 @@
       <c r="R30" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T30" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="5" t="s">
@@ -2998,8 +3006,11 @@
       <c r="R31" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T31" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>79</v>
       </c>
@@ -3007,7 +3018,7 @@
         <v>34</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D32" s="18" t="s">
         <v>35</v>
@@ -3028,7 +3039,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="33" spans="1:20" ht="51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>80</v>
       </c>
@@ -3036,13 +3047,13 @@
         <v>37</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>167</v>
@@ -3066,7 +3077,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>109</v>
       </c>
@@ -3074,7 +3085,7 @@
         <v>37</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="D34" s="18" t="s">
         <v>35</v>
@@ -3101,7 +3112,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>108</v>
       </c>
@@ -3109,7 +3120,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>35</v>
@@ -3136,7 +3147,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>110</v>
       </c>
@@ -3144,7 +3155,7 @@
         <v>37</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D36" s="18" t="s">
         <v>35</v>
@@ -3171,7 +3182,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>111</v>
       </c>
@@ -3185,7 +3196,7 @@
         <v>35</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>113</v>
@@ -3209,7 +3220,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>159</v>
       </c>
@@ -3217,13 +3228,13 @@
         <v>37</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D38" s="18" t="s">
         <v>101</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>169</v>
@@ -3247,7 +3258,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>83</v>
       </c>
@@ -3255,13 +3266,13 @@
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>99</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>169</v>
@@ -3282,7 +3293,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>82</v>
       </c>
@@ -3290,7 +3301,7 @@
         <v>34</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>35</v>
@@ -3311,7 +3322,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>133</v>
       </c>
@@ -3319,7 +3330,7 @@
         <v>34</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>35</v>
@@ -3340,7 +3351,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>142</v>
       </c>
@@ -3348,7 +3359,7 @@
         <v>34</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>35</v>
@@ -3369,7 +3380,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>143</v>
       </c>
@@ -3377,7 +3388,7 @@
         <v>34</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>35</v>
@@ -3398,7 +3409,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>133</v>
       </c>
@@ -3406,7 +3417,7 @@
         <v>37</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>35</v>
@@ -3433,7 +3444,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>151</v>
       </c>
@@ -3441,7 +3452,7 @@
         <v>37</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>35</v>
@@ -3468,7 +3479,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="46" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>152</v>
       </c>
@@ -3476,7 +3487,7 @@
         <v>103</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>132</v>
@@ -3485,10 +3496,10 @@
         <v>160</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>167</v>
@@ -3509,10 +3520,10 @@
         <v>114</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>152</v>
       </c>
@@ -3520,7 +3531,7 @@
         <v>103</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>132</v>
@@ -3529,10 +3540,10 @@
         <v>160</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>167</v>
@@ -3553,10 +3564,10 @@
         <v>114</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>90</v>
       </c>
@@ -3564,7 +3575,7 @@
         <v>34</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>35</v>
@@ -3585,7 +3596,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>134</v>
       </c>
@@ -3593,7 +3604,7 @@
         <v>103</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>120</v>
@@ -3620,7 +3631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>135</v>
       </c>
@@ -3628,7 +3639,7 @@
         <v>139</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="5" t="s">
@@ -3653,7 +3664,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>135</v>
       </c>
@@ -3661,7 +3672,7 @@
         <v>37</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>99</v>
@@ -3688,7 +3699,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>156</v>
       </c>
@@ -3702,7 +3713,7 @@
         <v>35</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>169</v>
@@ -3723,7 +3734,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="53" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>129</v>
       </c>
@@ -3737,10 +3748,10 @@
         <v>35</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J53" s="2" t="s">
         <v>167</v>
@@ -3761,24 +3772,24 @@
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>35</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>167</v>
@@ -3799,24 +3810,24 @@
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>35</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>167</v>
@@ -3837,7 +3848,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>69</v>
       </c>
@@ -3845,16 +3856,16 @@
         <v>37</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>35</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="J56" s="2" t="s">
         <v>167</v>
@@ -3875,15 +3886,15 @@
         <v>107</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>132</v>
@@ -3910,7 +3921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>157</v>
       </c>
@@ -3918,13 +3929,13 @@
         <v>37</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>178</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>167</v>
@@ -3948,9 +3959,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="59" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>37</v>
@@ -3962,10 +3973,10 @@
         <v>35</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>167</v>
@@ -3986,7 +3997,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>136</v>
       </c>
@@ -3994,7 +4005,7 @@
         <v>37</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D60" s="18" t="s">
         <v>35</v>
@@ -4021,7 +4032,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>96</v>
       </c>
@@ -4029,7 +4040,7 @@
         <v>37</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>120</v>
@@ -4056,7 +4067,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>97</v>
       </c>
@@ -4064,7 +4075,7 @@
         <v>34</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D62" s="18" t="s">
         <v>35</v>
@@ -4085,7 +4096,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>98</v>
       </c>
@@ -4093,7 +4104,7 @@
         <v>34</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>35</v>
@@ -4114,15 +4125,15 @@
         <v>93</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>35</v>
@@ -4143,15 +4154,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>35</v>
@@ -4172,7 +4183,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>161</v>
       </c>
@@ -4180,7 +4191,7 @@
         <v>37</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D66" s="18" t="s">
         <v>102</v>
@@ -4207,7 +4218,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>118</v>
       </c>
@@ -4215,7 +4226,7 @@
         <v>37</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>35</v>
@@ -4242,7 +4253,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>154</v>
       </c>
@@ -4250,13 +4261,13 @@
         <v>37</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>167</v>
@@ -4280,7 +4291,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>155</v>
       </c>
@@ -4288,7 +4299,7 @@
         <v>34</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>35</v>
@@ -4309,7 +4320,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>156</v>
       </c>
@@ -4323,10 +4334,10 @@
         <v>35</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>167</v>
@@ -4347,9 +4358,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="51" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>37</v>
@@ -4361,10 +4372,10 @@
         <v>35</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>167</v>
@@ -4411,31 +4422,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4EA295FB1FB9547A73C9F5819D6E613" ma:contentTypeVersion="22" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e49181b65574406c5282aee675d2d615">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4e95bed8-6d15-4403-ad70-a53422338dca" xmlns:ns3="10d3344f-2d16-43d9-a145-97142f5cb288" xmlns:ns4="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc6d884b6a76c93e77d17ea8b02330de" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4720,27 +4706,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
-    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7DC8098-0BCF-4335-855B-B63F1C44D88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4759,4 +4750,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
+    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/oko/config oko.xlsx
+++ b/oko/config oko.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln.sharepoint.com/sites/GGD-ONDZ/PSchijf/Gezondheidsmonitor/Algemeen/Automatisering en R/0. Github/report_excel_to_powerpoint/oko/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="927" documentId="13_ncr:1_{BEF9BC84-22C2-4587-9B7D-81FBCE0907AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34725226-337D-4D31-ACA8-B9CE230CEAAC}"/>
+  <xr:revisionPtr revIDLastSave="1022" documentId="13_ncr:1_{BEF9BC84-22C2-4587-9B7D-81FBCE0907AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBF8D05D-6653-414C-AE4F-EE7B99843A82}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
+    <workbookView xWindow="38280" yWindow="5265" windowWidth="29040" windowHeight="15720" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
   </bookViews>
   <sheets>
     <sheet name="reports" sheetId="4" r:id="rId1"/>
@@ -168,6 +168,7 @@
     <author>tc={8C9526BC-1643-4978-B037-FB87A2A7054E}</author>
     <author>tc={3A7F9123-99E1-42D1-9C97-F0A170A9C6FC}</author>
     <author>tc={597F013F-3E28-4641-A5E5-749372F689D3}</author>
+    <author>tc={B03CEF64-BC57-4156-BC28-9894E6319AF0}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A658E7DE-6946-4E57-94CA-4E19CC39606F}">
@@ -375,12 +376,20 @@
 Geef minstens zoveel kleurcodes op als je nodig hebt (meer is niet erg, minder wel). Scheidt alle kleurcodes met een puntkomma ';'</t>
       </text>
     </comment>
+    <comment ref="C39" authorId="20" shapeId="0" xr:uid="{B03CEF64-BC57-4156-BC28-9894E6319AF0}">
+      <text>
+        <t>[Opmerkingenthread]
+U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
+Opmerking:
+    Indicator voor ‘ Ik vind school (hartstikke) leuk’ wordt nog niet aangemaakt in de syntaxen, dus die moet nog toegevoegd worden aan deze figuur.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="277">
   <si>
     <t>type</t>
   </si>
@@ -475,9 +484,6 @@
     <t>report_name_prefix</t>
   </si>
   <si>
-    <t>oko/template oko.pptx</t>
-  </si>
-  <si>
     <t>Schoolnaam</t>
   </si>
   <si>
@@ -592,9 +598,6 @@
     <t>Gebruikt wiet of hasj</t>
   </si>
   <si>
-    <t>Drugsgebruik</t>
-  </si>
-  <si>
     <t>Grafiek ouders roken</t>
   </si>
   <si>
@@ -631,9 +634,6 @@
     <t>Is in de laatste 3 maanden op of rond school gepest</t>
   </si>
   <si>
-    <t>Schoolbeleving</t>
-  </si>
-  <si>
     <t>Grafiek schoolbeleving</t>
   </si>
   <si>
@@ -772,12 +772,6 @@
     <t>Drinkt alcohol</t>
   </si>
   <si>
-    <t>Vapet</t>
-  </si>
-  <si>
-    <t>Rookt</t>
-  </si>
-  <si>
     <t>1;2;3</t>
   </si>
   <si>
@@ -808,12 +802,6 @@
     <t>Grafiek school betrokken</t>
   </si>
   <si>
-    <t>chilt 1x per maand of vaker bij vrienden thuis zonder aanwezigheid van volwassenen</t>
-  </si>
-  <si>
-    <t>chilt 1x per maand of vaker op andere plekken dan bij vrienden thuis zonder aanwezigheid van volwassenen</t>
-  </si>
-  <si>
     <t>Percentage laat thuis</t>
   </si>
   <si>
@@ -835,9 +823,6 @@
     <t>Grafiek chillen alcohol</t>
   </si>
   <si>
-    <t>chilt 1x per maand of vaker met vrienden zonder aanwezigheid van volwassenen</t>
-  </si>
-  <si>
     <t>Heeft alcohol gedronken in de laatste 4 weken</t>
   </si>
   <si>
@@ -886,9 +871,6 @@
     <t>Schoolcode</t>
   </si>
   <si>
-    <t>oko/data/OKO2025.sav</t>
-  </si>
-  <si>
     <t>KLAS</t>
   </si>
   <si>
@@ -898,9 +880,6 @@
     <t>EBEGK3S2</t>
   </si>
   <si>
-    <t>PBMGK3S2</t>
-  </si>
-  <si>
     <t>SBEZK3S2</t>
   </si>
   <si>
@@ -964,9 +943,6 @@
     <t>LBSDK3S1 van de jongeren heeft ooit wiet of hasj gebruikt. Het percentage dat in de laatste 4 weken wiet of hasj gebruikt heeft is LBSDK3S2.</t>
   </si>
   <si>
-    <t>LOHDK3S1; LOHDK3S2</t>
-  </si>
-  <si>
     <t>GBZOK316</t>
   </si>
   <si>
@@ -976,24 +952,9 @@
     <t>1 = Ouders; 1 = Andere familie; 1 = Vrienden; 1 = Volwassene op school; 1 = Hulpverlener; 1 = Iemand anders; 1 = Niemand</t>
   </si>
   <si>
-    <t>SOROK3S11</t>
-  </si>
-  <si>
-    <t>Beoordeelt de eigen mentale gezondheid als (heel) goed</t>
-  </si>
-  <si>
     <t>1 = Ik voel me veilig op school; 1 = Leerlingen gaan goed met elkaar om; 1 = Docenten gaan goed met leerlingen o</t>
   </si>
   <si>
-    <t>SOOSK3S1; SOOSK3S3; SOOSK3S4</t>
-  </si>
-  <si>
-    <t>SOOSK3S6; SBOSK3S7</t>
-  </si>
-  <si>
-    <t>1 = Ik vind naar school gaan zinloos; 1 = Ik vind school (hartstikke) leuk</t>
-  </si>
-  <si>
     <t>SBRLK304</t>
   </si>
   <si>
@@ -1036,30 +997,12 @@
     <t>Vapet wekelijks</t>
   </si>
   <si>
-    <t>LOMVK3S4</t>
-  </si>
-  <si>
-    <t>LOMVK3S5</t>
-  </si>
-  <si>
-    <t>LOMVK3S8</t>
-  </si>
-  <si>
-    <t>LOMVK3S6</t>
-  </si>
-  <si>
     <t>SOCHK304</t>
   </si>
   <si>
-    <t>Pesten in de afgelopen 3 maanden</t>
-  </si>
-  <si>
     <t>SBRLK302</t>
   </si>
   <si>
-    <t>SBRLK303; SBRLK304; SBRLK305; SBRLK306; SBRLK307</t>
-  </si>
-  <si>
     <t>LBAGK391</t>
   </si>
   <si>
@@ -1135,9 +1078,6 @@
     <t>SOCHK3S5; SOCHK3S6</t>
   </si>
   <si>
-    <t>SOCHK306</t>
-  </si>
-  <si>
     <t>LOLBK3A2</t>
   </si>
   <si>
@@ -1147,9 +1087,6 @@
     <t>0;0</t>
   </si>
   <si>
-    <t>LOLBK3A1; SOVBK3A1</t>
-  </si>
-  <si>
     <t>GBZOK3S12; GBZOK3S13; GBZOK3S14; GBZOK3S15; GBZOK3S16; GBZOK3S17; GBZOK316</t>
   </si>
   <si>
@@ -1180,31 +1117,109 @@
     <t>#E3032C; #FABD15; #36B03F</t>
   </si>
   <si>
-    <t>De houding van ouders ten opzichte van hangt samen met het alcoholgebruik van jongeren. Van de jongeren die geen (of alleen een slokje) alcohol drinken geeft LOAGK3A25 aan dat hun ouders het goed zouden vinden als ze toch alcohol zouden drinken. Van de jongeren die alcohol drinken geeft LOAGK3A16 aan dat hun ouders alcohol drinken goed vinden.</t>
-  </si>
-  <si>
     <t>LOAGKA318</t>
   </si>
   <si>
     <t>LOAGKA319</t>
   </si>
   <si>
+    <t>LBRAK3S23</t>
+  </si>
+  <si>
+    <t>#36B03F; #92D050; #FABD15; #FF6200; #E3032C; #4450C6</t>
+  </si>
+  <si>
+    <t>#36B03F; #92D050; #FF6200; #E3032C; #4450C6</t>
+  </si>
+  <si>
+    <t>oko/template rapportage oko.pptx</t>
+  </si>
+  <si>
+    <t>C:/Users/sanderve/OneDrive - VRLN/PSchijf/Gezondheidsmonitor/2025 OKO Gezondheidsmonitor/4. Analyse/Databestanden/Eindbestand OKO 2025.sav</t>
+  </si>
+  <si>
+    <t>Testschool</t>
+  </si>
+  <si>
+    <t>SOCHK3S6</t>
+  </si>
+  <si>
+    <t>0 = Ouders maken met ouders van vrienden geen afspraken over alcohol; 1 = Ouders maken met ouders van vrienden afspraken over alcohol</t>
+  </si>
+  <si>
+    <t>LBLBK3S11; SOVBK3A2</t>
+  </si>
+  <si>
+    <t>Ervaart de eigen mentale gezondheid als (heel) goed</t>
+  </si>
+  <si>
+    <t>Chilt 1x per maand of vaker bij vrienden thuis zonder aanwezigheid van volwassenen</t>
+  </si>
+  <si>
+    <t>Chilt 1x per maand of vaker op andere plekken dan bij vrienden thuis zonder aanwezigheid van volwassenen</t>
+  </si>
+  <si>
+    <t>Chilt 1x per maand of vaker met vrienden zonder aanwezigheid van volwassenen</t>
+  </si>
+  <si>
+    <t>Is in de afgelopen 3 maanden gepest</t>
+  </si>
+  <si>
+    <t>SBRLK3S15; SBRLK3S14; SBRLK3S16; SBRLK3S17; SBRLK3S18</t>
+  </si>
+  <si>
+    <t>LOMVK3A6</t>
+  </si>
+  <si>
+    <t>LOMVK3A4</t>
+  </si>
+  <si>
+    <t>LOMVK3A8</t>
+  </si>
+  <si>
+    <t>LOMVK3A5</t>
+  </si>
+  <si>
+    <t>LOHDK3A1; LOHDK3A2</t>
+  </si>
+  <si>
+    <t>Drugsgebruik (lachgas, XTC, cocaïne, paddo's, etc.)</t>
+  </si>
+  <si>
+    <t>SOOSK3A1; SOOSK3A2; SOOSK3A3</t>
+  </si>
+  <si>
+    <t>SOOSK3A4</t>
+  </si>
+  <si>
+    <t>1 = Ik vind naar school gaan zinloos</t>
+  </si>
+  <si>
+    <t>PBMGK3A2</t>
+  </si>
+  <si>
+    <t>#36B03F; #FABD15; #FF6200; #E3032C; #4450C6</t>
+  </si>
+  <si>
+    <t>Rookt; Vapet</t>
+  </si>
+  <si>
+    <t>Rookt niet; Vapet niet</t>
+  </si>
+  <si>
+    <t>De houding van ouders ten opzichte van hangt samen met het alcoholgebruik van jongeren. Van de jongeren die geen (of alleen een slokje) alcohol drinken geeft LOAGKA319 aan dat hun ouders het goed zouden vinden als ze toch alcohol zouden drinken. Van de jongeren die alcohol drinken geeft LOAGK3A1 aan dat hun ouders alcohol drinken goed vinden.</t>
+  </si>
+  <si>
+    <t>LOAGKA319; LOAGK3A1</t>
+  </si>
+  <si>
     <t>LOAGK3A1; LOAGK3A2; LOAGK3A3; LOAGK3A4; LOAGK3A5; LOAGK3A6; LOAGK3A7; LOAGK3A8; LOAGK3A9; LOAGK3A10</t>
   </si>
   <si>
-    <t>LBRAK3S23</t>
-  </si>
-  <si>
-    <t>LOAGK3S25; LOAGK3S16</t>
-  </si>
-  <si>
     <t>LOAGK3A11; LOAGK3A12; LOAGK3A13; LOAGK3A14; LOAGK3A15</t>
   </si>
   <si>
-    <t>#36B03F; #92D050; #FABD15; #FF6200; #E3032C; #4450C6</t>
-  </si>
-  <si>
-    <t>#36B03F; #92D050; #FF6200; #E3032C; #4450C6</t>
+    <t>Schoolbeleving (indicator 'vind school hartstikke leuk' onbreekt nog)</t>
   </si>
 </sst>
 </file>
@@ -1281,18 +1296,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1320,7 +1329,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1372,9 +1381,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Komma" xfId="4" builtinId="3"/>
@@ -1399,6 +1405,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Vermeulen, Sander" id="{24FE599D-2DE1-4A86-BD61-3295A1C28157}" userId="Vermeulen, Sander" providerId="None"/>
+  <person displayName="Vermeulen - van Gent, Sander" id="{AB8BC65D-0DB8-4F1B-B5C3-A7F8ED2CC3F8}" userId="S::s.vermeulen@VRLN.NL::e08259fd-81d2-4a86-9b20-28ba02d67a18" providerId="AD"/>
 </personList>
 </file>
 
@@ -1846,31 +1853,34 @@
     <text>In deze kolom kun je per figuur handmatig een kleurpalet ingeven. Laat je deze kolom leeg dan wordt het standaard kleurpalet uit layout.R gebruikt.
 Geef minstens zoveel kleurcodes op als je nodig hebt (meer is niet erg, minder wel). Scheidt alle kleurcodes met een puntkomma ';'</text>
   </threadedComment>
+  <threadedComment ref="C39" dT="2025-12-16T12:01:56.88" personId="{AB8BC65D-0DB8-4F1B-B5C3-A7F8ED2CC3F8}" id="{B03CEF64-BC57-4156-BC28-9894E6319AF0}">
+    <text>Indicator voor ‘ Ik vind school (hartstikke) leuk’ wordt nog niet aangemaakt in de syntaxen, dus die moet nog toegevoegd worden aan deze figuur.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0AA7A9-459B-4958-BBC2-94F84CFD8846}">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="23.44140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="25.109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="23.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="19.5546875" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="4"/>
+    <col min="3" max="3" width="27.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="25.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -1902,36 +1912,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>228</v>
+        <v>249</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G2" s="4">
-        <v>999</v>
+        <v>237781</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>158</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1944,37 +1953,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B8C6B-747D-4246-8EF4-E1910EE284AD}">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="I1" activePane="topRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="80.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="12" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.88671875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="32.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="17" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.33203125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="47.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="8.88671875" style="2"/>
+    <col min="15" max="15" width="31.28515625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="47.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -2030,13 +2039,13 @@
         <v>29</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2054,11 +2063,11 @@
         <v>1</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -2076,2324 +2085,2327 @@
         <v>1</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3" s="2"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K4" s="17">
         <v>2025</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N4" s="2">
         <v>3</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="J5" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K5" s="17">
         <v>2025</v>
       </c>
       <c r="L5" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N5" s="2">
         <v>4</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K6" s="17">
         <v>2025</v>
       </c>
       <c r="L6" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N6" s="2">
         <v>4</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="J7" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K7" s="17">
         <v>2025</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N7" s="2">
         <v>4</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K8" s="17">
         <v>2025</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N8" s="2">
         <v>4</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="J9" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K9" s="17">
         <v>2025</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N9" s="2">
         <v>4</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K10" s="17">
         <v>2025</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N10" s="2">
         <v>4</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K11" s="17">
         <v>2025</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N11" s="2">
         <v>5</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K12" s="17">
         <v>2025</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N12" s="2">
         <v>5</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K13" s="17">
         <v>2025</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N13" s="2">
         <v>5</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K14" s="17">
         <v>2025</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N14" s="2">
         <v>5</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="J15" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K15" s="17">
         <v>2025</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N15" s="2">
         <v>6</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="J16" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K16" s="17">
         <v>2025</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N16" s="2">
         <v>6</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="J17" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K17" s="17">
         <v>2025</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N17" s="2">
         <v>6</v>
       </c>
       <c r="O17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K18" s="17">
         <v>2025</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N18" s="2">
         <v>6</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K19" s="17">
         <v>2025</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N19" s="2">
         <v>6</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="69" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K20" s="17">
         <v>2025</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N20" s="2">
         <v>7</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="D21" s="18"/>
       <c r="J21" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K21" s="17">
         <v>2025</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N21" s="2">
         <v>7</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T21" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="D22" s="18"/>
       <c r="J22" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K22" s="17">
         <v>2025</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N22" s="2">
         <v>7</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="T22" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="51" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="D23" s="18" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K23" s="17">
         <v>2025</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N23" s="2">
         <v>7</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="51" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D24" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>188</v>
-      </c>
       <c r="J24" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K24" s="17">
         <v>2025</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N24" s="2">
         <v>7</v>
       </c>
       <c r="O24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="C25" s="3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K25" s="17">
         <v>2025</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N25" s="2">
         <v>8</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K26" s="17">
         <v>2025</v>
       </c>
       <c r="L26" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N26" s="2">
         <v>8</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K27" s="17">
         <v>2025</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N27" s="2">
         <v>8</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K28" s="17">
         <v>2025</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N28" s="2">
         <v>8</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>70</v>
+        <v>264</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K29" s="17">
         <v>2025</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N29" s="2">
         <v>8</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>241</v>
+        <v>134</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="5" t="s">
-        <v>131</v>
+        <v>270</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K30" s="17">
         <v>2025</v>
       </c>
       <c r="L30" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N30" s="2">
         <v>9</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R30" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C31" s="19" t="s">
-        <v>242</v>
+        <v>134</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="5" t="s">
-        <v>130</v>
+        <v>271</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K31" s="17">
         <v>2025</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N31" s="2">
         <v>9</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="R31" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D32" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="J32" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K32" s="17">
         <v>2025</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N32" s="2">
         <v>10</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" ht="55.2" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" ht="51" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K33" s="17">
         <v>2025</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N33" s="2">
         <v>10</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="R33" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>109</v>
-      </c>
       <c r="B34" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K34" s="17">
         <v>2025</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N34" s="2">
         <v>10</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="R34" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K35" s="17">
         <v>2025</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N35" s="2">
         <v>10</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="R35" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>110</v>
-      </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K36" s="17">
         <v>2025</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N36" s="2">
         <v>10</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K37" s="17">
         <v>2025</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N37" s="2">
         <v>10</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>201</v>
+        <v>265</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K38" s="17">
         <v>2025</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N38" s="2">
         <v>11</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>83</v>
+        <v>276</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>203</v>
+        <v>267</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K39" s="17">
         <v>2025</v>
       </c>
       <c r="L39" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N39" s="2">
         <v>11</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="J40" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K40" s="17">
         <v>2025</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N40" s="2">
         <v>11</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="J41" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K41" s="17">
         <v>2025</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N41" s="2">
         <v>12</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>142</v>
+        <v>254</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D42" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="J42" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K42" s="17">
         <v>2025</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N42" s="2">
         <v>12</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>143</v>
+        <v>255</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="J43" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K43" s="17">
         <v>2025</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N43" s="2">
         <v>12</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K44" s="17">
         <v>2025</v>
       </c>
       <c r="L44" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N44" s="2">
         <v>12</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K45" s="17">
         <v>2025</v>
       </c>
       <c r="L45" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N45" s="2">
         <v>12</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D46" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="F46" s="3" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K46" s="17">
         <v>2025</v>
       </c>
       <c r="L46" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N46" s="2">
         <v>12</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R46" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>226</v>
-      </c>
-      <c r="D47" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>160</v>
-      </c>
       <c r="F47" s="3" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K47" s="17">
         <v>2025</v>
       </c>
       <c r="L47" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N47" s="2">
         <v>12</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R47" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="J48" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K48" s="17">
         <v>2025</v>
       </c>
       <c r="L48" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N48" s="2">
         <v>13</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K49" s="17">
         <v>2025</v>
       </c>
       <c r="L49" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N49" s="2">
         <v>13</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R49" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="S49" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K50" s="17">
         <v>2025</v>
       </c>
       <c r="L50" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N50" s="2">
         <v>13</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K51" s="17">
         <v>2025</v>
       </c>
       <c r="L51" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N51" s="2">
         <v>13</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F52" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>251</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K52" s="17">
         <v>2025</v>
       </c>
       <c r="L52" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N52" s="2">
         <v>13</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K53" s="17">
         <v>2025</v>
       </c>
       <c r="L53" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N53" s="2">
         <v>14</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="R53" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>220</v>
+        <v>261</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K54" s="17">
         <v>2025</v>
       </c>
       <c r="L54" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N54" s="2">
         <v>14</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="R54" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K55" s="17">
         <v>2025</v>
       </c>
       <c r="L55" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N55" s="2">
         <v>14</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="R55" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>221</v>
+        <v>259</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K56" s="17">
         <v>2025</v>
       </c>
       <c r="L56" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N56" s="2">
         <v>14</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="R56" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K57" s="17">
         <v>2025</v>
       </c>
       <c r="L57" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N57" s="2">
         <v>15</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="S57" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>225</v>
+        <v>258</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K58" s="17">
         <v>2025</v>
       </c>
       <c r="L58" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N58" s="2">
         <v>15</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Q58" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R58" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K59" s="17">
         <v>2025</v>
       </c>
       <c r="L59" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N59" s="2">
         <v>15</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="R59" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K60" s="17">
         <v>2025</v>
       </c>
       <c r="L60" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N60" s="2">
         <v>15</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="R60" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K61" s="17">
         <v>2025</v>
       </c>
       <c r="L61" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N61" s="2">
         <v>16</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q61" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R61" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="J62" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K62" s="17">
         <v>2025</v>
       </c>
       <c r="L62" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N62" s="2">
         <v>16</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D63" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="J63" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K63" s="17">
         <v>2025</v>
       </c>
       <c r="L63" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N63" s="2">
         <v>16</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D64" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D64" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="J64" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K64" s="17">
         <v>2025</v>
       </c>
       <c r="L64" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N64" s="2">
         <v>16</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="D65" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D65" s="18" t="s">
-        <v>35</v>
-      </c>
       <c r="J65" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K65" s="17">
         <v>2025</v>
       </c>
       <c r="L65" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N65" s="2">
         <v>16</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K66" s="17">
         <v>2025</v>
       </c>
       <c r="L66" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N66" s="2">
         <v>16</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K67" s="17">
         <v>2025</v>
       </c>
       <c r="L67" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N67" s="2">
         <v>16</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="R67" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" ht="41.4" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D68" s="12" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K68" s="17">
         <v>2025</v>
       </c>
       <c r="L68" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N68" s="2">
         <v>17</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="Q68" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R68" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="D69" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C69" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="J69" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K69" s="17">
         <v>2025</v>
       </c>
       <c r="L69" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N69" s="2">
         <v>17</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" ht="55.2" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="51" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K70" s="17">
         <v>2025</v>
       </c>
       <c r="L70" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N70" s="2">
         <v>17</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="R70" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" ht="55.2" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="51" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>199</v>
+        <v>253</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>172</v>
+        <v>268</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="K71" s="17">
         <v>2025</v>
       </c>
       <c r="L71" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N71" s="2">
         <v>17</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="R71" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4422,6 +4434,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4EA295FB1FB9547A73C9F5819D6E613" ma:contentTypeVersion="22" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e49181b65574406c5282aee675d2d615">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4e95bed8-6d15-4403-ad70-a53422338dca" xmlns:ns3="10d3344f-2d16-43d9-a145-97142f5cb288" xmlns:ns4="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc6d884b6a76c93e77d17ea8b02330de" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -4706,32 +4743,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
+    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7DC8098-0BCF-4335-855B-B63F1C44D88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4750,24 +4782,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
-    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/oko/config oko.xlsx
+++ b/oko/config oko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln.sharepoint.com/sites/GGD-ONDZ/PSchijf/Gezondheidsmonitor/Algemeen/Automatisering en R/0. Github/report_excel_to_powerpoint/oko/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1022" documentId="13_ncr:1_{BEF9BC84-22C2-4587-9B7D-81FBCE0907AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBF8D05D-6653-414C-AE4F-EE7B99843A82}"/>
+  <xr:revisionPtr revIDLastSave="1028" documentId="13_ncr:1_{BEF9BC84-22C2-4587-9B7D-81FBCE0907AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{318B3D23-899D-4958-BA60-D9D6D2476CB3}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5265" windowWidth="29040" windowHeight="15720" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
   </bookViews>
   <sheets>
     <sheet name="reports" sheetId="4" r:id="rId1"/>
@@ -168,7 +168,6 @@
     <author>tc={8C9526BC-1643-4978-B037-FB87A2A7054E}</author>
     <author>tc={3A7F9123-99E1-42D1-9C97-F0A170A9C6FC}</author>
     <author>tc={597F013F-3E28-4641-A5E5-749372F689D3}</author>
-    <author>tc={B03CEF64-BC57-4156-BC28-9894E6319AF0}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A658E7DE-6946-4E57-94CA-4E19CC39606F}">
@@ -376,14 +375,6 @@
 Geef minstens zoveel kleurcodes op als je nodig hebt (meer is niet erg, minder wel). Scheidt alle kleurcodes met een puntkomma ';'</t>
       </text>
     </comment>
-    <comment ref="C39" authorId="20" shapeId="0" xr:uid="{B03CEF64-BC57-4156-BC28-9894E6319AF0}">
-      <text>
-        <t>[Opmerkingenthread]
-U kunt deze opmerkingenthread lezen in uw versie van Excel. Eventuele wijzigingen aan de thread gaan echter verloren als het bestand wordt geopend in een nieuwere versie van Excel. Meer informatie: https://go.microsoft.com/fwlink/?linkid=870924
-Opmerking:
-    Indicator voor ‘ Ik vind school (hartstikke) leuk’ wordt nog niet aangemaakt in de syntaxen, dus die moet nog toegevoegd worden aan deze figuur.</t>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -1189,12 +1180,6 @@
     <t>SOOSK3A1; SOOSK3A2; SOOSK3A3</t>
   </si>
   <si>
-    <t>SOOSK3A4</t>
-  </si>
-  <si>
-    <t>1 = Ik vind naar school gaan zinloos</t>
-  </si>
-  <si>
     <t>PBMGK3A2</t>
   </si>
   <si>
@@ -1219,7 +1204,13 @@
     <t>LOAGK3A11; LOAGK3A12; LOAGK3A13; LOAGK3A14; LOAGK3A15</t>
   </si>
   <si>
-    <t>Schoolbeleving (indicator 'vind school hartstikke leuk' onbreekt nog)</t>
+    <t>SOOSK3A4; SBOSK3S7</t>
+  </si>
+  <si>
+    <t>1 = Vindt naar school gaan zinloos; 1 = Vindt school (hartstikke) leuk</t>
+  </si>
+  <si>
+    <t>Schoolbeleving</t>
   </si>
 </sst>
 </file>
@@ -1405,7 +1396,6 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Vermeulen, Sander" id="{24FE599D-2DE1-4A86-BD61-3295A1C28157}" userId="Vermeulen, Sander" providerId="None"/>
-  <person displayName="Vermeulen - van Gent, Sander" id="{AB8BC65D-0DB8-4F1B-B5C3-A7F8ED2CC3F8}" userId="S::s.vermeulen@VRLN.NL::e08259fd-81d2-4a86-9b20-28ba02d67a18" providerId="AD"/>
 </personList>
 </file>
 
@@ -1853,9 +1843,6 @@
     <text>In deze kolom kun je per figuur handmatig een kleurpalet ingeven. Laat je deze kolom leeg dan wordt het standaard kleurpalet uit layout.R gebruikt.
 Geef minstens zoveel kleurcodes op als je nodig hebt (meer is niet erg, minder wel). Scheidt alle kleurcodes met een puntkomma ';'</text>
   </threadedComment>
-  <threadedComment ref="C39" dT="2025-12-16T12:01:56.88" personId="{AB8BC65D-0DB8-4F1B-B5C3-A7F8ED2CC3F8}" id="{B03CEF64-BC57-4156-BC28-9894E6319AF0}">
-    <text>Indicator voor ‘ Ik vind school (hartstikke) leuk’ wordt nog niet aangemaakt in de syntaxen, dus die moet nog toegevoegd worden aan deze figuur.</text>
-  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -1863,7 +1850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0AA7A9-459B-4958-BBC2-94F84CFD8846}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1953,9 +1940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B8C6B-747D-4246-8EF4-E1910EE284AD}">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2187,7 +2174,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>34</v>
@@ -2216,7 +2203,7 @@
         <v>36</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>34</v>
@@ -2609,13 +2596,13 @@
     </row>
     <row r="20" spans="1:20" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>96</v>
@@ -2716,7 +2703,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>177</v>
@@ -2754,7 +2741,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>168</v>
@@ -2959,7 +2946,7 @@
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="5" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>159</v>
@@ -2995,7 +2982,7 @@
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="5" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>159</v>
@@ -3016,7 +3003,7 @@
         <v>111</v>
       </c>
       <c r="T31" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -3199,7 +3186,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D37" s="18" t="s">
         <v>34</v>
@@ -3267,7 +3254,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>276</v>
       </c>
@@ -3275,13 +3262,13 @@
         <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>160</v>
@@ -3979,7 +3966,7 @@
         <v>36</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>34</v>
@@ -4378,7 +4365,7 @@
         <v>36</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>34</v>
@@ -4434,15 +4421,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -4456,6 +4434,15 @@
     </TaxKeywordTaxHTField>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4744,14 +4731,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4759,6 +4738,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
     <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/oko/config oko.xlsx
+++ b/oko/config oko.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln.sharepoint.com/sites/GGD-ONDZ/PSchijf/Gezondheidsmonitor/Algemeen/Automatisering en R/0. Github/report_excel_to_powerpoint/oko/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1028" documentId="13_ncr:1_{BEF9BC84-22C2-4587-9B7D-81FBCE0907AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{318B3D23-899D-4958-BA60-D9D6D2476CB3}"/>
+  <xr:revisionPtr revIDLastSave="1032" documentId="13_ncr:1_{BEF9BC84-22C2-4587-9B7D-81FBCE0907AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59DDB5BA-EBC5-4329-B23F-20D999850F75}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
   </bookViews>
@@ -1192,12 +1192,6 @@
     <t>Rookt niet; Vapet niet</t>
   </si>
   <si>
-    <t>De houding van ouders ten opzichte van hangt samen met het alcoholgebruik van jongeren. Van de jongeren die geen (of alleen een slokje) alcohol drinken geeft LOAGKA319 aan dat hun ouders het goed zouden vinden als ze toch alcohol zouden drinken. Van de jongeren die alcohol drinken geeft LOAGK3A1 aan dat hun ouders alcohol drinken goed vinden.</t>
-  </si>
-  <si>
-    <t>LOAGKA319; LOAGK3A1</t>
-  </si>
-  <si>
     <t>LOAGK3A1; LOAGK3A2; LOAGK3A3; LOAGK3A4; LOAGK3A5; LOAGK3A6; LOAGK3A7; LOAGK3A8; LOAGK3A9; LOAGK3A10</t>
   </si>
   <si>
@@ -1211,6 +1205,12 @@
   </si>
   <si>
     <t>Schoolbeleving</t>
+  </si>
+  <si>
+    <t>LOAGK3A25; LOAGK3A16</t>
+  </si>
+  <si>
+    <t>De houding van ouders ten opzichte van hangt samen met het alcoholgebruik van jongeren. Van de jongeren die geen (of alleen een slokje) alcohol drinken geeft LOAGK3A25 aan dat hun ouders het goed zouden vinden als ze toch alcohol zouden drinken. Van de jongeren die alcohol drinken geeft LOAGK3A16 aan dat hun ouders alcohol drinken goed vinden.</t>
   </si>
 </sst>
 </file>
@@ -1940,9 +1940,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{784B8C6B-747D-4246-8EF4-E1910EE284AD}">
   <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C39" sqref="C39"/>
+      <selection pane="topRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -2596,13 +2596,13 @@
     </row>
     <row r="20" spans="1:20" ht="51" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>96</v>
@@ -2703,7 +2703,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>177</v>
@@ -2741,7 +2741,7 @@
         <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D24" s="18" t="s">
         <v>168</v>
@@ -3256,19 +3256,19 @@
     </row>
     <row r="39" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>96</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>160</v>
@@ -4421,6 +4421,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -4434,15 +4443,6 @@
     </TaxKeywordTaxHTField>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4731,6 +4731,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -4738,14 +4746,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
     <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/oko/config oko.xlsx
+++ b/oko/config oko.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln.sharepoint.com/sites/GGD-ONDZ/PSchijf/Gezondheidsmonitor/Algemeen/Automatisering en R/0. Github/report_excel_to_powerpoint/oko/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1122" documentId="13_ncr:1_{BEF9BC84-22C2-4587-9B7D-81FBCE0907AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97F0F802-B784-4C0D-89B1-BDEEC4CB1A59}"/>
+  <xr:revisionPtr revIDLastSave="1123" documentId="13_ncr:1_{BEF9BC84-22C2-4587-9B7D-81FBCE0907AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71915E7E-7480-4148-A079-0C04A6142CED}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="17172" windowWidth="23256" windowHeight="12456" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
+    <workbookView xWindow="38280" yWindow="5265" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
   </bookViews>
   <sheets>
     <sheet name="reports" sheetId="4" r:id="rId1"/>
@@ -641,7 +641,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="406">
   <si>
     <t>type</t>
   </si>
@@ -1856,6 +1856,9 @@
   </si>
   <si>
     <t>configuratie figurenboek</t>
+  </si>
+  <si>
+    <t>Middelengebruik en schoolbeleving</t>
   </si>
 </sst>
 </file>
@@ -1865,7 +1868,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1937,12 +1940,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2642,7 +2639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0AA7A9-459B-4958-BBC2-94F84CFD8846}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4487,7 +4484,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>127</v>
       </c>
@@ -5254,8 +5251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BEB4C1-A925-4FAE-9007-19794D9EEA69}">
   <dimension ref="A1:V87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7058,7 +7055,7 @@
     </row>
     <row r="43" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>314</v>
+        <v>405</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>36</v>
@@ -9099,12 +9096,19 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9393,25 +9397,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
+    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9438,13 +9439,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
-    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/oko/config oko.xlsx
+++ b/oko/config oko.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vrln.sharepoint.com/sites/GGD-ONDZ/PSchijf/Gezondheidsmonitor/Algemeen/Automatisering en R/0. Github/report_excel_to_powerpoint/oko/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1123" documentId="13_ncr:1_{BEF9BC84-22C2-4587-9B7D-81FBCE0907AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71915E7E-7480-4148-A079-0C04A6142CED}"/>
+  <xr:revisionPtr revIDLastSave="1133" documentId="13_ncr:1_{BEF9BC84-22C2-4587-9B7D-81FBCE0907AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CC38DC0-B101-4F41-906F-9EC679CF0B09}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="5265" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{340DDFAE-1A83-41FC-A379-531A17E4526A}"/>
   </bookViews>
   <sheets>
     <sheet name="reports" sheetId="4" r:id="rId1"/>
@@ -641,7 +641,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="407">
   <si>
     <t>type</t>
   </si>
@@ -1582,9 +1582,6 @@
     <t>1 = (Vaak) tot altijd eenzaam; 1 = (Zeer) vaak gestrest</t>
   </si>
   <si>
-    <t>0 = (Zeer) goede mentale gezondheid; 1 = (Zeer) slechte of gaat wel mentale gezondheid</t>
-  </si>
-  <si>
     <t>Middelengebruik en mentale gezondheid</t>
   </si>
   <si>
@@ -1859,6 +1856,12 @@
   </si>
   <si>
     <t>Middelengebruik en schoolbeleving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOCHK3S7 </t>
+  </si>
+  <si>
+    <t>0 = (Zeer) slechte of gaat wel mentale gezondheid; 1 = (Zeer) goede mentale gezondheid</t>
   </si>
 </sst>
 </file>
@@ -2639,24 +2642,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0AA7A9-459B-4958-BBC2-94F84CFD8846}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="28.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="25.140625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="4"/>
+    <col min="3" max="3" width="27.5546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.44140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="25.109375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
@@ -2688,7 +2691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>235</v>
       </c>
@@ -2717,21 +2720,21 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>235</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>234</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>404</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>156</v>
@@ -2763,33 +2766,33 @@
       <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="80.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="80.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="17" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="47.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.85546875" style="2"/>
+    <col min="15" max="15" width="31.33203125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="47.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2877,7 +2880,7 @@
       <c r="P2" s="2"/>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
@@ -2899,7 +2902,7 @@
       </c>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -2926,7 +2929,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>44</v>
       </c>
@@ -2955,7 +2958,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
@@ -2990,7 +2993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>239</v>
       </c>
@@ -3019,7 +3022,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>239</v>
       </c>
@@ -3054,7 +3057,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>161</v>
       </c>
@@ -3083,7 +3086,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>161</v>
       </c>
@@ -3118,7 +3121,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>109</v>
       </c>
@@ -3153,7 +3156,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>49</v>
       </c>
@@ -3188,7 +3191,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>61</v>
       </c>
@@ -3226,7 +3229,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>50</v>
       </c>
@@ -3261,7 +3264,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>145</v>
       </c>
@@ -3290,7 +3293,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>168</v>
       </c>
@@ -3319,7 +3322,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>169</v>
       </c>
@@ -3348,7 +3351,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>111</v>
       </c>
@@ -3383,7 +3386,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>111</v>
       </c>
@@ -3418,7 +3421,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>261</v>
       </c>
@@ -3447,7 +3450,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>147</v>
       </c>
@@ -3483,7 +3486,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>206</v>
       </c>
@@ -3519,7 +3522,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>59</v>
       </c>
@@ -3557,7 +3560,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>60</v>
       </c>
@@ -3595,7 +3598,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>172</v>
       </c>
@@ -3624,7 +3627,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>175</v>
       </c>
@@ -3653,7 +3656,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>67</v>
       </c>
@@ -3688,7 +3691,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>68</v>
       </c>
@@ -3723,7 +3726,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>250</v>
       </c>
@@ -3758,7 +3761,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>204</v>
       </c>
@@ -3794,7 +3797,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>205</v>
       </c>
@@ -3830,7 +3833,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>77</v>
       </c>
@@ -3859,7 +3862,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>78</v>
       </c>
@@ -3897,7 +3900,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>105</v>
       </c>
@@ -3932,7 +3935,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>104</v>
       </c>
@@ -3967,7 +3970,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>106</v>
       </c>
@@ -4002,7 +4005,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>239</v>
       </c>
@@ -4040,7 +4043,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="51" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>148</v>
       </c>
@@ -4078,7 +4081,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>259</v>
       </c>
@@ -4113,7 +4116,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>80</v>
       </c>
@@ -4142,7 +4145,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>125</v>
       </c>
@@ -4171,7 +4174,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>240</v>
       </c>
@@ -4200,7 +4203,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>241</v>
       </c>
@@ -4229,7 +4232,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>125</v>
       </c>
@@ -4264,7 +4267,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>242</v>
       </c>
@@ -4299,7 +4302,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>141</v>
       </c>
@@ -4343,7 +4346,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>141</v>
       </c>
@@ -4360,7 +4363,7 @@
         <v>149</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>212</v>
+        <v>405</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>214</v>
@@ -4387,7 +4390,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>87</v>
       </c>
@@ -4416,7 +4419,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>126</v>
       </c>
@@ -4451,7 +4454,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>127</v>
       </c>
@@ -4484,7 +4487,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>127</v>
       </c>
@@ -4519,7 +4522,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="69" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>145</v>
       </c>
@@ -4557,7 +4560,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>123</v>
       </c>
@@ -4595,7 +4598,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>192</v>
       </c>
@@ -4633,7 +4636,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>189</v>
       </c>
@@ -4671,7 +4674,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>68</v>
       </c>
@@ -4709,7 +4712,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>243</v>
       </c>
@@ -4744,7 +4747,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>146</v>
       </c>
@@ -4782,7 +4785,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>239</v>
       </c>
@@ -4820,7 +4823,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>128</v>
       </c>
@@ -4855,7 +4858,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>93</v>
       </c>
@@ -4890,7 +4893,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>94</v>
       </c>
@@ -4919,7 +4922,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>95</v>
       </c>
@@ -4948,7 +4951,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>184</v>
       </c>
@@ -4977,7 +4980,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>183</v>
       </c>
@@ -5006,7 +5009,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>150</v>
       </c>
@@ -5041,7 +5044,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>112</v>
       </c>
@@ -5076,7 +5079,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>143</v>
       </c>
@@ -5114,7 +5117,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>144</v>
       </c>
@@ -5143,7 +5146,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="51" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>145</v>
       </c>
@@ -5181,7 +5184,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="51" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>239</v>
       </c>
@@ -5251,38 +5254,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BEB4C1-A925-4FAE-9007-19794D9EEA69}">
   <dimension ref="A1:V87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="73.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="73.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="12" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="17" customWidth="1"/>
-    <col min="12" max="12" width="13.140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" style="3" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="31.28515625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.5546875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="31.33203125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="47.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="2"/>
+    <col min="20" max="20" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="47.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>12</v>
       </c>
@@ -5350,7 +5351,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>276</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>279</v>
       </c>
@@ -5384,7 +5385,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>282</v>
       </c>
@@ -5419,7 +5420,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>282</v>
       </c>
@@ -5457,7 +5458,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>286</v>
       </c>
@@ -5504,7 +5505,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="7" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>292</v>
       </c>
@@ -5551,7 +5552,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>296</v>
       </c>
@@ -5586,7 +5587,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>296</v>
       </c>
@@ -5624,7 +5625,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>297</v>
       </c>
@@ -5671,7 +5672,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>299</v>
       </c>
@@ -5718,7 +5719,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>302</v>
       </c>
@@ -5753,7 +5754,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>302</v>
       </c>
@@ -5791,7 +5792,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>303</v>
       </c>
@@ -5838,7 +5839,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>305</v>
       </c>
@@ -5885,7 +5886,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>308</v>
       </c>
@@ -5921,7 +5922,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>308</v>
       </c>
@@ -5959,7 +5960,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>310</v>
       </c>
@@ -5979,7 +5980,7 @@
         <v>252</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>313</v>
+        <v>406</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>156</v>
@@ -6006,27 +6007,27 @@
         <v>291</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>314</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>315</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>252</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>313</v>
+        <v>406</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>156</v>
@@ -6053,15 +6054,15 @@
         <v>291</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>317</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>318</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>34</v>
@@ -6088,15 +6089,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>317</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>318</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>34</v>
@@ -6126,27 +6127,27 @@
         <v>103</v>
       </c>
     </row>
-    <row r="22" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>319</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>320</v>
       </c>
       <c r="D22" s="18" t="s">
         <v>96</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>322</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>156</v>
@@ -6173,27 +6174,27 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D23" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>156</v>
@@ -6220,9 +6221,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>36</v>
@@ -6255,9 +6256,9 @@
         <v>103</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>36</v>
@@ -6293,27 +6294,27 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>325</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>326</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>96</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>163</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>156</v>
@@ -6340,27 +6341,27 @@
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>163</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>156</v>
@@ -6387,9 +6388,9 @@
         <v>291</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A28" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>36</v>
@@ -6413,7 +6414,7 @@
         <v>9</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>284</v>
@@ -6422,12 +6423,12 @@
         <v>103</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A29" s="20" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>36</v>
@@ -6454,7 +6455,7 @@
         <v>9</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>285</v>
@@ -6463,12 +6464,12 @@
         <v>103</v>
       </c>
       <c r="V29" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="30" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>333</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>36</v>
@@ -6486,7 +6487,7 @@
         <v>225</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>156</v>
@@ -6501,7 +6502,7 @@
         <v>9</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>290</v>
@@ -6513,30 +6514,30 @@
         <v>291</v>
       </c>
       <c r="V30" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="31" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>336</v>
-      </c>
       <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D31" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>225</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>156</v>
@@ -6551,7 +6552,7 @@
         <v>9</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>295</v>
@@ -6563,12 +6564,12 @@
         <v>291</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>36</v>
@@ -6592,7 +6593,7 @@
         <v>10</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>284</v>
@@ -6601,12 +6602,12 @@
         <v>103</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>36</v>
@@ -6633,7 +6634,7 @@
         <v>10</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>285</v>
@@ -6642,12 +6643,12 @@
         <v>103</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="34" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A34" s="20" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>36</v>
@@ -6665,7 +6666,7 @@
         <v>223</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>156</v>
@@ -6680,7 +6681,7 @@
         <v>10</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>290</v>
@@ -6692,30 +6693,30 @@
         <v>291</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="35" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A35" s="20" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D35" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>223</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>156</v>
@@ -6730,7 +6731,7 @@
         <v>10</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>295</v>
@@ -6742,12 +6743,12 @@
         <v>291</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>36</v>
@@ -6771,7 +6772,7 @@
         <v>11</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>284</v>
@@ -6780,12 +6781,12 @@
         <v>103</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="20" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>36</v>
@@ -6812,7 +6813,7 @@
         <v>11</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>285</v>
@@ -6821,12 +6822,12 @@
         <v>103</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A38" s="20" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>36</v>
@@ -6844,7 +6845,7 @@
         <v>224</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>156</v>
@@ -6859,7 +6860,7 @@
         <v>11</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>290</v>
@@ -6871,30 +6872,30 @@
         <v>291</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="39" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A39" s="20" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D39" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>224</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>156</v>
@@ -6909,7 +6910,7 @@
         <v>11</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>295</v>
@@ -6921,18 +6922,18 @@
         <v>291</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="D40" s="18" t="s">
         <v>34</v>
@@ -6950,7 +6951,7 @@
         <v>12</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>284</v>
@@ -6959,18 +6960,18 @@
         <v>103</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="21" t="s">
+        <v>344</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>34</v>
@@ -6991,7 +6992,7 @@
         <v>12</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>285</v>
@@ -7000,12 +7001,12 @@
         <v>103</v>
       </c>
       <c r="V41" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
         <v>348</v>
-      </c>
-    </row>
-    <row r="42" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>349</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>36</v>
@@ -7020,10 +7021,10 @@
         <v>288</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>156</v>
@@ -7038,7 +7039,7 @@
         <v>12</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>290</v>
@@ -7050,30 +7051,30 @@
         <v>291</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="43" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A43" s="21" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>156</v>
@@ -7088,7 +7089,7 @@
         <v>12</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>295</v>
@@ -7100,18 +7101,18 @@
         <v>291</v>
       </c>
       <c r="V43" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A44" s="22" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="B44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="D44" s="18" t="s">
         <v>34</v>
@@ -7129,7 +7130,7 @@
         <v>13</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>284</v>
@@ -7138,18 +7139,18 @@
         <v>103</v>
       </c>
       <c r="V44" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>353</v>
       </c>
       <c r="D45" s="18" t="s">
         <v>34</v>
@@ -7170,7 +7171,7 @@
         <v>13</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>285</v>
@@ -7179,12 +7180,12 @@
         <v>103</v>
       </c>
       <c r="V45" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="46" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A46" s="22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>36</v>
@@ -7199,10 +7200,10 @@
         <v>288</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>156</v>
@@ -7217,7 +7218,7 @@
         <v>13</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>290</v>
@@ -7229,30 +7230,30 @@
         <v>291</v>
       </c>
       <c r="V46" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="47" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D47" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>156</v>
@@ -7267,7 +7268,7 @@
         <v>13</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>295</v>
@@ -7279,18 +7280,18 @@
         <v>291</v>
       </c>
       <c r="V47" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="D48" s="18" t="s">
         <v>34</v>
@@ -7308,7 +7309,7 @@
         <v>14</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>284</v>
@@ -7317,18 +7318,18 @@
         <v>103</v>
       </c>
       <c r="V48" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>358</v>
       </c>
       <c r="D49" s="18" t="s">
         <v>34</v>
@@ -7349,7 +7350,7 @@
         <v>14</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>285</v>
@@ -7358,12 +7359,12 @@
         <v>103</v>
       </c>
       <c r="V49" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
         <v>360</v>
-      </c>
-    </row>
-    <row r="50" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
-        <v>361</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>36</v>
@@ -7378,10 +7379,10 @@
         <v>288</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J50" s="2" t="s">
         <v>156</v>
@@ -7396,7 +7397,7 @@
         <v>14</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>290</v>
@@ -7408,30 +7409,30 @@
         <v>291</v>
       </c>
       <c r="V50" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A51" s="3" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="51" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>364</v>
-      </c>
       <c r="B51" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>156</v>
@@ -7446,7 +7447,7 @@
         <v>14</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>295</v>
@@ -7458,12 +7459,12 @@
         <v>291</v>
       </c>
       <c r="V51" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A52" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>36</v>
@@ -7487,7 +7488,7 @@
         <v>15</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>284</v>
@@ -7496,12 +7497,12 @@
         <v>103</v>
       </c>
       <c r="V52" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A53" s="20" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>36</v>
@@ -7528,7 +7529,7 @@
         <v>15</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>285</v>
@@ -7537,12 +7538,12 @@
         <v>103</v>
       </c>
       <c r="V53" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="54" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A54" s="20" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>36</v>
@@ -7560,7 +7561,7 @@
         <v>212</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J54" s="2" t="s">
         <v>156</v>
@@ -7575,7 +7576,7 @@
         <v>15</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>290</v>
@@ -7587,30 +7588,30 @@
         <v>291</v>
       </c>
       <c r="V54" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="55" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A55" s="20" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>212</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="J55" s="2" t="s">
         <v>156</v>
@@ -7625,7 +7626,7 @@
         <v>15</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>295</v>
@@ -7637,18 +7638,18 @@
         <v>291</v>
       </c>
       <c r="V55" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="56" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A56" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>34</v>
@@ -7666,7 +7667,7 @@
         <v>16</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>284</v>
@@ -7675,18 +7676,18 @@
         <v>103</v>
       </c>
       <c r="V56" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="57" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A57" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>34</v>
@@ -7707,7 +7708,7 @@
         <v>16</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>285</v>
@@ -7716,12 +7717,12 @@
         <v>103</v>
       </c>
       <c r="V57" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="58" spans="1:22" ht="63.75" x14ac:dyDescent="0.25">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22" ht="69" x14ac:dyDescent="0.3">
       <c r="A58" s="20" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>36</v>
@@ -7736,10 +7737,10 @@
         <v>288</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J58" s="2" t="s">
         <v>156</v>
@@ -7754,7 +7755,7 @@
         <v>16</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>290</v>
@@ -7766,30 +7767,30 @@
         <v>291</v>
       </c>
       <c r="V58" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="59" spans="1:22" ht="63.75" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22" ht="69" x14ac:dyDescent="0.3">
       <c r="A59" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D59" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J59" s="2" t="s">
         <v>156</v>
@@ -7804,7 +7805,7 @@
         <v>16</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>295</v>
@@ -7816,12 +7817,12 @@
         <v>291</v>
       </c>
       <c r="V59" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A60" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>36</v>
@@ -7845,7 +7846,7 @@
         <v>17</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>284</v>
@@ -7854,12 +7855,12 @@
         <v>103</v>
       </c>
       <c r="V60" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A61" s="20" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>36</v>
@@ -7886,7 +7887,7 @@
         <v>17</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>285</v>
@@ -7895,12 +7896,12 @@
         <v>103</v>
       </c>
       <c r="V61" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="20" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="62" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A62" s="20" t="s">
-        <v>377</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>36</v>
@@ -7918,7 +7919,7 @@
         <v>220</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J62" s="2" t="s">
         <v>156</v>
@@ -7933,7 +7934,7 @@
         <v>17</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>290</v>
@@ -7945,30 +7946,30 @@
         <v>291</v>
       </c>
       <c r="V62" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="20" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="63" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A63" s="20" t="s">
-        <v>380</v>
-      </c>
       <c r="B63" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D63" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>220</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J63" s="2" t="s">
         <v>156</v>
@@ -7983,7 +7984,7 @@
         <v>17</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P63" s="2" t="s">
         <v>295</v>
@@ -7995,18 +7996,18 @@
         <v>291</v>
       </c>
       <c r="V63" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A64" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="23" t="s">
         <v>381</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>382</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>34</v>
@@ -8024,7 +8025,7 @@
         <v>18</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>284</v>
@@ -8033,18 +8034,18 @@
         <v>103</v>
       </c>
       <c r="V64" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A65" s="20" t="s">
+        <v>380</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="23" t="s">
         <v>381</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="23" t="s">
-        <v>382</v>
       </c>
       <c r="D65" s="18" t="s">
         <v>34</v>
@@ -8065,7 +8066,7 @@
         <v>18</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>285</v>
@@ -8074,12 +8075,12 @@
         <v>103</v>
       </c>
       <c r="V65" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="20" t="s">
         <v>376</v>
-      </c>
-    </row>
-    <row r="66" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A66" s="20" t="s">
-        <v>377</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>36</v>
@@ -8094,10 +8095,10 @@
         <v>288</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G66" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>156</v>
@@ -8112,7 +8113,7 @@
         <v>18</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>290</v>
@@ -8124,30 +8125,30 @@
         <v>291</v>
       </c>
       <c r="V66" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="20" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="67" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="20" t="s">
-        <v>380</v>
-      </c>
       <c r="B67" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D67" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F67" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>383</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>156</v>
@@ -8162,7 +8163,7 @@
         <v>18</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>295</v>
@@ -8174,18 +8175,18 @@
         <v>291</v>
       </c>
       <c r="V67" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A68" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C68" s="23" t="s">
         <v>384</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>385</v>
       </c>
       <c r="D68" s="18" t="s">
         <v>34</v>
@@ -8203,7 +8204,7 @@
         <v>19</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>284</v>
@@ -8212,18 +8213,18 @@
         <v>103</v>
       </c>
       <c r="V68" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="69" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A69" s="20" t="s">
+        <v>383</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C69" s="23" t="s">
         <v>384</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C69" s="23" t="s">
-        <v>385</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>34</v>
@@ -8244,7 +8245,7 @@
         <v>19</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>285</v>
@@ -8253,12 +8254,12 @@
         <v>103</v>
       </c>
       <c r="V69" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" ht="51" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A70" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>36</v>
@@ -8273,10 +8274,10 @@
         <v>288</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J70" s="2" t="s">
         <v>156</v>
@@ -8291,7 +8292,7 @@
         <v>19</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>290</v>
@@ -8303,30 +8304,30 @@
         <v>291</v>
       </c>
       <c r="V70" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" ht="51" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A71" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D71" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>156</v>
@@ -8341,7 +8342,7 @@
         <v>19</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P71" s="2" t="s">
         <v>295</v>
@@ -8353,18 +8354,18 @@
         <v>291</v>
       </c>
       <c r="V71" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A72" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C72" s="23" t="s">
         <v>389</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C72" s="23" t="s">
-        <v>390</v>
       </c>
       <c r="D72" s="18" t="s">
         <v>34</v>
@@ -8382,7 +8383,7 @@
         <v>20</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>284</v>
@@ -8391,18 +8392,18 @@
         <v>103</v>
       </c>
       <c r="V72" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" ht="25.5" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A73" s="20" t="s">
+        <v>388</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73" s="23" t="s">
         <v>389</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C73" s="23" t="s">
-        <v>390</v>
       </c>
       <c r="D73" s="18" t="s">
         <v>34</v>
@@ -8423,7 +8424,7 @@
         <v>20</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>285</v>
@@ -8432,12 +8433,12 @@
         <v>103</v>
       </c>
       <c r="V73" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" ht="51" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A74" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>36</v>
@@ -8452,10 +8453,10 @@
         <v>288</v>
       </c>
       <c r="F74" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="J74" s="2" t="s">
         <v>156</v>
@@ -8470,7 +8471,7 @@
         <v>20</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P74" s="2" t="s">
         <v>290</v>
@@ -8482,30 +8483,30 @@
         <v>291</v>
       </c>
       <c r="V74" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" ht="51" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A75" s="20" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F75" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="G75" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>156</v>
@@ -8520,7 +8521,7 @@
         <v>20</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>295</v>
@@ -8532,12 +8533,12 @@
         <v>291</v>
       </c>
       <c r="V75" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A76" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>36</v>
@@ -8561,7 +8562,7 @@
         <v>21</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P76" s="2" t="s">
         <v>284</v>
@@ -8570,12 +8571,12 @@
         <v>103</v>
       </c>
       <c r="V76" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A77" s="20" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>36</v>
@@ -8602,7 +8603,7 @@
         <v>21</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P77" s="2" t="s">
         <v>285</v>
@@ -8611,12 +8612,12 @@
         <v>103</v>
       </c>
       <c r="V77" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A78" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>36</v>
@@ -8634,7 +8635,7 @@
         <v>221</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J78" s="2" t="s">
         <v>156</v>
@@ -8649,7 +8650,7 @@
         <v>21</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P78" s="2" t="s">
         <v>290</v>
@@ -8661,30 +8662,30 @@
         <v>291</v>
       </c>
       <c r="V78" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A79" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C79" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>221</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J79" s="2" t="s">
         <v>156</v>
@@ -8699,7 +8700,7 @@
         <v>21</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>295</v>
@@ -8711,18 +8712,18 @@
         <v>291</v>
       </c>
       <c r="V79" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A80" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="23" t="s">
         <v>396</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>397</v>
       </c>
       <c r="D80" s="18" t="s">
         <v>34</v>
@@ -8740,7 +8741,7 @@
         <v>22</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>284</v>
@@ -8749,18 +8750,18 @@
         <v>103</v>
       </c>
       <c r="V80" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A81" s="20" t="s">
+        <v>395</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" s="23" t="s">
         <v>396</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>397</v>
       </c>
       <c r="D81" s="18" t="s">
         <v>34</v>
@@ -8781,7 +8782,7 @@
         <v>22</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>285</v>
@@ -8790,12 +8791,12 @@
         <v>103</v>
       </c>
       <c r="V81" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A82" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>36</v>
@@ -8810,10 +8811,10 @@
         <v>288</v>
       </c>
       <c r="F82" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G82" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>156</v>
@@ -8828,7 +8829,7 @@
         <v>22</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P82" s="2" t="s">
         <v>290</v>
@@ -8840,30 +8841,30 @@
         <v>291</v>
       </c>
       <c r="V82" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A83" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D83" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F83" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="G83" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="J83" s="2" t="s">
         <v>156</v>
@@ -8878,7 +8879,7 @@
         <v>22</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P83" s="2" t="s">
         <v>295</v>
@@ -8890,18 +8891,18 @@
         <v>291</v>
       </c>
       <c r="V83" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A84" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C84" s="23" t="s">
         <v>399</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C84" s="23" t="s">
-        <v>400</v>
       </c>
       <c r="D84" s="18" t="s">
         <v>34</v>
@@ -8919,7 +8920,7 @@
         <v>23</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P84" s="2" t="s">
         <v>284</v>
@@ -8928,18 +8929,18 @@
         <v>103</v>
       </c>
       <c r="V84" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A85" s="20" t="s">
+        <v>398</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="23" t="s">
         <v>399</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C85" s="23" t="s">
-        <v>400</v>
       </c>
       <c r="D85" s="18" t="s">
         <v>34</v>
@@ -8960,7 +8961,7 @@
         <v>23</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P85" s="2" t="s">
         <v>285</v>
@@ -8969,12 +8970,12 @@
         <v>103</v>
       </c>
       <c r="V85" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="86" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A86" s="20" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>36</v>
@@ -8989,10 +8990,10 @@
         <v>288</v>
       </c>
       <c r="F86" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G86" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>401</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>156</v>
@@ -9007,7 +9008,7 @@
         <v>23</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>290</v>
@@ -9019,30 +9020,30 @@
         <v>291</v>
       </c>
       <c r="V86" s="2" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="87" spans="1:22" ht="38.25" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A87" s="20" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D87" s="18" t="s">
         <v>98</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F87" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="G87" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>401</v>
       </c>
       <c r="J87" s="2" t="s">
         <v>156</v>
@@ -9057,7 +9058,7 @@
         <v>23</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P87" s="2" t="s">
         <v>295</v>
@@ -9069,7 +9070,7 @@
         <v>291</v>
       </c>
       <c r="V87" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -9091,29 +9092,14 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4EA295FB1FB9547A73C9F5819D6E613" ma:contentTypeVersion="22" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="e49181b65574406c5282aee675d2d615">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4e95bed8-6d15-4403-ad70-a53422338dca" xmlns:ns3="10d3344f-2d16-43d9-a145-97142f5cb288" xmlns:ns4="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc6d884b6a76c93e77d17ea8b02330de" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C4EA295FB1FB9547A73C9F5819D6E613" ma:contentTypeVersion="22" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="586e6f9b10cb27d3f03483507ae7cb9d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4e95bed8-6d15-4403-ad70-a53422338dca" xmlns:ns3="10d3344f-2d16-43d9-a145-97142f5cb288" xmlns:ns4="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f29125cba2118f3064d103e6e0ba85ce" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="4e95bed8-6d15-4403-ad70-a53422338dca"/>
     <xsd:import namespace="10d3344f-2d16-43d9-a145-97142f5cb288"/>
@@ -9396,7 +9382,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -9405,20 +9391,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
-    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="4e95bed8-6d15-4403-ad70-a53422338dca">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <TaxCatchAll xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7DC8098-0BCF-4335-855B-B63F1C44D88B}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15B2EAB0-CF1E-4BFF-A0B2-760E3129F1CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -9438,10 +9428,22 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F0EF40A6-8528-4994-A94E-1AE934020AF5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFBB421F-7112-4B85-A662-9379706C03DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4e95bed8-6d15-4403-ad70-a53422338dca"/>
+    <ds:schemaRef ds:uri="d045ab76-3bb7-45f5-ab41-d7b04aa0dc94"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>